--- a/data/Venn_Diagrams/Gene_name_data/GENES_NON_CODING_VENN_DATA.xlsx
+++ b/data/Venn_Diagrams/Gene_name_data/GENES_NON_CODING_VENN_DATA.xlsx
@@ -434,26 +434,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DESeq2/LimmaVoom/EdgeR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DESeq2/EdgeR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DESeq2/LimmaVoom</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EdgeR/LimmaVoom</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DESeq2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LimmaVoom</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EdgeR</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -845,7 +859,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NME2P1</t>
+          <t>CH507-528H12.1</t>
         </is>
       </c>
     </row>
@@ -874,7 +888,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CH507-528H12.1</t>
+          <t>NME2P1</t>
         </is>
       </c>
     </row>
@@ -956,7 +970,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>CTD-2186M15.3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -985,7 +999,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ZNF252P-AS1</t>
+          <t>Y_RNA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1014,7 +1028,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CTD-2186M15.3</t>
+          <t>ZNF252P-AS1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1285,7 +1299,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>RP11-545I5.3</t>
+          <t>RP11-531H8.2</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>RP11-531H8.2</t>
+          <t>RP11-545I5.3</t>
         </is>
       </c>
     </row>
